--- a/sputnik/personal/ee/76ee.xlsx
+++ b/sputnik/personal/ee/76ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,17 +36,29 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>нет показаний</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,30 +143,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +188,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -239,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,10 +289,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,7 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -482,17 +498,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -500,349 +516,236 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>43798</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="9">
+        <v>43630</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>3488</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9">
+        <v>3288</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2622</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9">
+        <v>43717</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3388</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4-C2</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="6">
         <v>4.49</v>
       </c>
-      <c r="F2" s="5">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>3022</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="5" t="e">
-        <f>D3*E3</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>43724</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3488</v>
-      </c>
-      <c r="D4" s="2">
-        <f>C4-C6</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="F4" s="12">
         <f>D4*E4</f>
         <v>449</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11" t="s">
+      <c r="G4" s="14">
+        <f>SUM(F4,F5)</f>
+        <v>935</v>
+      </c>
+      <c r="H4" s="14">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
-        <v>3022</v>
+      <c r="C5" s="5">
+        <v>2822</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D15" si="0">C5-C7</f>
+        <f>C5-C3</f>
         <v>200</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="12">
         <f>D5*E5</f>
         <v>486.00000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>43717</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9">
+        <v>43724</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>3388</v>
+        <v>3488</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:D7" si="0">C6-C4</f>
         <v>100</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>4.49</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="12">
         <f>D6*E6</f>
         <v>449</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11" t="s">
+      <c r="G6" s="14">
+        <f>SUM(F6,F7)</f>
+        <v>935</v>
+      </c>
+      <c r="H6" s="14">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
-        <v>2822</v>
+      <c r="C7" s="5">
+        <v>3022</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="12">
         <f>D7*E7</f>
         <v>486.00000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>43630</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9">
+        <v>43798</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>3288</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F15" si="1">D8*E8</f>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="12">
+        <v>696</v>
+      </c>
+      <c r="G8" s="14">
+        <f>SUM(F8,F9)</f>
+        <v>696</v>
+      </c>
+      <c r="H8" s="14">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
-        <v>2622</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43421</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
-        <v>3188</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2422</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
-        <v>246.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43366</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
-        <v>3132</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>796.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2317</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
-        <v>199.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43309</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2955</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="1"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2232</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>324.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>43036</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2805</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2094</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E9" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(G2:G9)</f>
+        <v>2566</v>
+      </c>
+      <c r="H10" s="14">
+        <f>SUM(H2:H9)</f>
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
+        <f>SUM(H10,-G10)</f>
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -852,12 +755,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -866,12 +769,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/76ee.xlsx
+++ b/sputnik/personal/ee/76ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,9 +289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,6 +324,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -498,7 +500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -508,7 +510,7 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -523,7 +525,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -549,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43630</v>
       </c>
@@ -565,7 +567,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1">
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -579,7 +581,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43717</v>
       </c>
@@ -608,7 +610,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
         <v>1</v>
@@ -630,7 +632,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43724</v>
       </c>
@@ -659,7 +661,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1">
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="8" t="s">
         <v>1</v>
@@ -681,7 +683,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>43798</v>
       </c>
@@ -708,7 +710,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="8" t="s">
         <v>1</v>
@@ -726,7 +728,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
@@ -739,7 +741,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -755,12 +757,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -769,12 +771,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/76ee.xlsx
+++ b/sputnik/personal/ee/76ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -700,11 +700,11 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="12">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="G8" s="14">
         <f>SUM(F8,F9)</f>
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="H8" s="14">
         <v>696</v>
@@ -729,24 +729,68 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="13" t="s">
+      <c r="A10" s="9">
+        <v>44088</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1604.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G12" s="14">
         <f>SUM(G2:G9)</f>
-        <v>2566</v>
-      </c>
-      <c r="H10" s="14">
+        <v>1870</v>
+      </c>
+      <c r="H12" s="14">
         <f>SUM(H2:H9)</f>
         <v>2594</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
-        <f>SUM(H10,-G10)</f>
-        <v>28</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <f>SUM(H12,-G12)</f>
+        <v>724</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/76ee.xlsx
+++ b/sputnik/personal/ee/76ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,15 +552,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>43630</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3288</v>
-      </c>
+      <c r="A2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
       <c r="F2" s="12"/>
@@ -569,12 +563,8 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2622</v>
-      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="8"/>
       <c r="F3" s="12"/>
@@ -582,104 +572,42 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>43717</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3388</v>
-      </c>
-      <c r="D4" s="2">
-        <f>C4-C2</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="12">
-        <f>D4*E4</f>
-        <v>449</v>
-      </c>
-      <c r="G4" s="14">
-        <f>SUM(F4,F5)</f>
-        <v>935</v>
-      </c>
-      <c r="H4" s="14">
-        <v>935</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2822</v>
-      </c>
-      <c r="D5" s="2">
-        <f>C5-C3</f>
-        <v>200</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="12">
-        <f>D5*E5</f>
-        <v>486.00000000000006</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>43724</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3488</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="0">C6-C4</f>
-        <v>100</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="12">
-        <f>D6*E6</f>
-        <v>449</v>
-      </c>
-      <c r="G6" s="14">
-        <f>SUM(F6,F7)</f>
-        <v>935</v>
-      </c>
-      <c r="H6" s="14">
-        <v>963</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3022</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="12">
-        <f>D7*E7</f>
-        <v>486.00000000000006</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
@@ -736,19 +664,21 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="D10" s="11">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="E10" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="12">
-        <v>0</v>
+        <f t="shared" ref="F10:F11" si="0">D10*E10</f>
+        <v>1299.96</v>
       </c>
       <c r="G10" s="14">
-        <v>0</v>
+        <f>SUM(F10,F11)</f>
+        <v>1605.96</v>
       </c>
       <c r="H10" s="14">
         <v>1604.82</v>
@@ -760,37 +690,91 @@
         <v>1</v>
       </c>
       <c r="C11" s="5">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D11" s="11">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E11" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="12"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="13" t="s">
+      <c r="A12" s="9">
+        <v>44130</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>748</v>
+      </c>
+      <c r="D12" s="11">
+        <f>SUM(C12,-C10)</f>
+        <v>472</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" ref="F12:F13" si="1">D12*E12</f>
+        <v>2223.12</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(F12,F13)</f>
+        <v>3311.97</v>
+      </c>
+      <c r="H12" s="14">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>547</v>
+      </c>
+      <c r="D13" s="11">
+        <f>SUM(C13,-C11)</f>
+        <v>427</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>1088.8499999999999</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14">
-        <f>SUM(G2:G9)</f>
-        <v>1870</v>
-      </c>
-      <c r="H12" s="14">
-        <f>SUM(H2:H9)</f>
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <f>SUM(H12,-G12)</f>
-        <v>724</v>
+      <c r="G14" s="14">
+        <f>SUM(G2:G13)</f>
+        <v>4917.93</v>
+      </c>
+      <c r="H14" s="14">
+        <f>SUM(H2:H13)</f>
+        <v>5612.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <f>SUM(H14,-G14)</f>
+        <v>694.88999999999942</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/76ee.xlsx
+++ b/sputnik/personal/ee/76ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,90 +552,158 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="9">
+        <v>43798</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="6"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="8"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="9">
+        <v>44088</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>276</v>
+      </c>
+      <c r="D4" s="11">
+        <v>276</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>1299.96</v>
+      </c>
+      <c r="G4" s="14">
+        <f>SUM(F4,F5)</f>
+        <v>1605.96</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1604.82</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>120</v>
+      </c>
+      <c r="D5" s="11">
+        <v>120</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="A6" s="9">
+        <v>44130</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>748</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(C6,-C4)</f>
+        <v>472</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:F7" si="1">D6*E6</f>
+        <v>2223.12</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(F6,F7)</f>
+        <v>3311.97</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3312</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>547</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUM(C7,-C5)</f>
+        <v>427</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>1088.8499999999999</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>43798</v>
+        <v>44158</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="D8" s="11">
-        <v>0</v>
+        <f>SUM(C8,-C6)</f>
+        <v>484</v>
       </c>
       <c r="E8" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="12">
-        <v>0</v>
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <v>2279.64</v>
       </c>
       <c r="G8" s="14">
         <f>SUM(F8,F9)</f>
-        <v>0</v>
+        <v>2866.14</v>
       </c>
       <c r="H8" s="14">
-        <v>696</v>
+        <v>2866.14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -644,137 +712,41 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="D9" s="11">
-        <v>0</v>
+        <f>SUM(C9,-C7)</f>
+        <v>230</v>
       </c>
       <c r="E9" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="12"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>586.5</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>44088</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>276</v>
-      </c>
-      <c r="D10" s="11">
-        <v>276</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" ref="F10:F11" si="0">D10*E10</f>
-        <v>1299.96</v>
+      <c r="F10" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="14">
-        <f>SUM(F10,F11)</f>
-        <v>1605.96</v>
+        <f>SUM(G2:G9)</f>
+        <v>7784.07</v>
       </c>
       <c r="H10" s="14">
-        <v>1604.82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>120</v>
-      </c>
-      <c r="D11" s="11">
-        <v>120</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>306</v>
-      </c>
+        <f>SUM(H2:H9)</f>
+        <v>7782.9599999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="13"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>44130</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>748</v>
-      </c>
-      <c r="D12" s="11">
-        <f>SUM(C12,-C10)</f>
-        <v>472</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" ref="F12:F13" si="1">D12*E12</f>
-        <v>2223.12</v>
-      </c>
-      <c r="G12" s="14">
-        <f>SUM(F12,F13)</f>
-        <v>3311.97</v>
-      </c>
-      <c r="H12" s="14">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>547</v>
-      </c>
-      <c r="D13" s="11">
-        <f>SUM(C13,-C11)</f>
-        <v>427</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="1"/>
-        <v>1088.8499999999999</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="14">
-        <f>SUM(G2:G13)</f>
-        <v>4917.93</v>
-      </c>
-      <c r="H14" s="14">
-        <f>SUM(H2:H13)</f>
-        <v>5612.82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
-        <f>SUM(H14,-G14)</f>
-        <v>694.88999999999942</v>
+      <c r="H11" s="14">
+        <f>SUM(H10,-G10)</f>
+        <v>-1.1100000000005821</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/76ee.xlsx
+++ b/sputnik/personal/ee/76ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,14 +637,14 @@
         <v>748</v>
       </c>
       <c r="D6" s="11">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" ref="D6:D13" si="1">SUM(C6,-C4)</f>
         <v>472</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" ref="F6:F7" si="1">D6*E6</f>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
         <v>2223.12</v>
       </c>
       <c r="G6" s="14">
@@ -664,14 +664,14 @@
         <v>547</v>
       </c>
       <c r="D7" s="11">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="1"/>
         <v>427</v>
       </c>
       <c r="E7" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1088.8499999999999</v>
       </c>
       <c r="G7" s="14"/>
@@ -688,14 +688,14 @@
         <v>1232</v>
       </c>
       <c r="D8" s="11">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="1"/>
         <v>484</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
         <v>2279.64</v>
       </c>
       <c r="G8" s="14">
@@ -715,38 +715,140 @@
         <v>777</v>
       </c>
       <c r="D9" s="11">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="E9" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>586.5</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="13" t="s">
+      <c r="A10" s="9">
+        <v>44172</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1632</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>1884</v>
+      </c>
+      <c r="G10" s="14">
+        <f>SUM(F10,F11)</f>
+        <v>2896.35</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1174</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="4"/>
+        <v>1012.3499999999999</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44193</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1932</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>1413</v>
+      </c>
+      <c r="G12" s="14">
+        <f>SUM(F12,F13)</f>
+        <v>1668</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1274</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="14">
-        <f>SUM(G2:G9)</f>
-        <v>7784.07</v>
-      </c>
-      <c r="H10" s="14">
-        <f>SUM(H2:H9)</f>
-        <v>7782.9599999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
-        <f>SUM(H10,-G10)</f>
-        <v>-1.1100000000005821</v>
+      <c r="G14" s="14">
+        <f>SUM(G2:G11)</f>
+        <v>10680.42</v>
+      </c>
+      <c r="H14" s="14">
+        <f>SUM(H2:H11)</f>
+        <v>10686.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <f>SUM(H14,-G14)</f>
+        <v>6.5399999999990541</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/76ee.xlsx
+++ b/sputnik/personal/ee/76ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -831,23 +831,74 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="13" t="s">
+      <c r="A14" s="9">
+        <v>44333</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2132</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" ref="D14:D15" si="6">SUM(C14,-C12)</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" ref="F14:F15" si="7">D14*E14</f>
+        <v>942</v>
+      </c>
+      <c r="G14" s="14">
+        <f>SUM(F14,F15)</f>
+        <v>1204.6500000000001</v>
+      </c>
+      <c r="H14" s="14">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1377</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="7"/>
+        <v>262.64999999999998</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G16" s="14">
         <f>SUM(G2:G11)</f>
         <v>10680.42</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H16" s="14">
         <f>SUM(H2:H11)</f>
         <v>10686.96</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
-        <f>SUM(H14,-G14)</f>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <f>SUM(H16,-G16)</f>
         <v>6.5399999999990541</v>
       </c>
     </row>

--- a/sputnik/personal/ee/76ee.xlsx
+++ b/sputnik/personal/ee/76ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -838,22 +838,22 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>2132</v>
+        <v>2432</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" ref="D14:D15" si="6">SUM(C14,-C12)</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" ref="F14:F15" si="7">D14*E14</f>
-        <v>942</v>
+        <v>2355</v>
       </c>
       <c r="G14" s="14">
         <f>SUM(F14,F15)</f>
-        <v>1204.6500000000001</v>
+        <v>2865</v>
       </c>
       <c r="H14" s="14">
         <v>2865</v>
@@ -865,47 +865,98 @@
         <v>1</v>
       </c>
       <c r="C15" s="5">
-        <v>1377</v>
+        <v>1474</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="6"/>
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="E15" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="7"/>
-        <v>262.64999999999998</v>
+        <v>509.99999999999994</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="13" t="s">
+      <c r="A16" s="9">
+        <v>44396</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2632</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" ref="D16:D17" si="8">SUM(C16,-C14)</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" ref="F16:F17" si="9">D16*E16</f>
+        <v>992</v>
+      </c>
+      <c r="G16" s="14">
+        <f>SUM(F16,F17)</f>
+        <v>1203.72</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1553</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="9"/>
+        <v>211.72</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="14">
-        <f>SUM(G2:G11)</f>
-        <v>10680.42</v>
-      </c>
-      <c r="H16" s="14">
-        <f>SUM(H2:H11)</f>
-        <v>10686.96</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
-        <f>SUM(H16,-G16)</f>
-        <v>6.5399999999990541</v>
+      <c r="G18" s="14">
+        <f>SUM(G2:G17)</f>
+        <v>16417.14</v>
+      </c>
+      <c r="H18" s="14">
+        <f>SUM(H2:H17)</f>
+        <v>16416.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <f>SUM(H18,-G18)</f>
+        <v>-0.18000000000029104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
